--- a/coding_notes/CSS_HTML Class Notes.xlsx
+++ b/coding_notes/CSS_HTML Class Notes.xlsx
@@ -12,7 +12,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+  <si>
+    <t>rel="stylesheet" type="text/css" href="selectors.css"</t>
+  </si>
+  <si>
+    <t>references the file where the css is actually written; used in the html file; can use terminal commands to give a relative destination</t>
+  </si>
   <si>
     <t>selector</t>
   </si>
@@ -26,10 +32,58 @@
     <t>* ; selects everything on the page</t>
   </si>
   <si>
-    <t>rel="stylesheet" type="text/css" href="selectors.css"</t>
-  </si>
-  <si>
-    <t>references the file where the css is actually written; used in the html file; can use terminal commands to give a relative destination</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>most specific selector (#&lt;id&gt;)</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>second least specific selector (second to universal); div, p, span</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>second most specific selector (ssecond to id);     .&lt;classname&gt;</t>
+  </si>
+  <si>
+    <t>box model</t>
+  </si>
+  <si>
+    <t>spacing and grouping methodology of html where everything is contained within boxes (no jagged content)</t>
+  </si>
+  <si>
+    <t>block elements</t>
+  </si>
+  <si>
+    <t>stretch to take up remaining space on the page (div tags, section tags, header tags, h1-h6 tags, form, header, footer)</t>
+  </si>
+  <si>
+    <t>inline elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take up only as much space as needed; Do not respond to height and width sizing by default (a width setting would be ignored by default): anchor tag, span, image tag, </t>
+  </si>
+  <si>
+    <t>inline-block elements</t>
+  </si>
+  <si>
+    <t>inline elements that responds to sizing like height and width</t>
+  </si>
+  <si>
+    <t>flexbox</t>
+  </si>
+  <si>
+    <t>way to distribute items inside a container when we don't know what size they'll need to be or how many objects will need to be there</t>
+  </si>
+  <si>
+    <t>main axis</t>
+  </si>
+  <si>
+    <t>horizontal axis that starts at the left side of the box and continues to the available space on the right (the box expands with it: the axis defines the location of the right side of the box); uses justify-content; the direction can be changed, but this is the default</t>
   </si>
   <si>
     <t>Selector {
@@ -37,19 +91,37 @@
 }</t>
   </si>
   <si>
+    <t>cross axis</t>
+  </si>
+  <si>
+    <t>a vertical axis that starts at the top of the box and continues to the available space below (the box expands with it: the axis defines the location of the bottom of the box); uses align-items; the direction can change, but this is the default</t>
+  </si>
+  <si>
     <t>General layout</t>
   </si>
   <si>
+    <t>css grid</t>
+  </si>
+  <si>
     <t>parentid className</t>
   </si>
   <si>
+    <t>2D grid-based layout system; assigns sections to a grid and then placing objects in that specific sections (define # of gridlines, sizing, and assign sections of boxes to different elements), etc.</t>
+  </si>
+  <si>
     <t>as a selector, this calls all the child classes of parentId</t>
   </si>
   <si>
     <t>className Id</t>
   </si>
   <si>
+    <t>fractional unit (fr)</t>
+  </si>
+  <si>
     <t>as a selector, this calls something in className with Id (way to select a specific child class)</t>
+  </si>
+  <si>
+    <t>defines things by relative size</t>
   </si>
   <si>
     <t>#divThree &gt; span</t>
@@ -259,78 +331,6 @@
     <t>justify-content: center;</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>most specific selector (#&lt;id&gt;)</t>
-  </si>
-  <si>
-    <t>element</t>
-  </si>
-  <si>
-    <t>second least specific selector (second to universal); div, p, span</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>second most specific selector (ssecond to id);     .&lt;classname&gt;</t>
-  </si>
-  <si>
-    <t>box model</t>
-  </si>
-  <si>
-    <t>spacing and grouping methodology of html where everything is contained within boxes (no jagged content)</t>
-  </si>
-  <si>
-    <t>block elements</t>
-  </si>
-  <si>
-    <t>stretch to take up remaining space on the page (div tags, section tags, header tags, h1-h6 tags, form, header, footer)</t>
-  </si>
-  <si>
-    <t>inline elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">take up only as much space as needed; Do not respond to height and width sizing by default (a width setting would be ignored by default): anchor tag, span, image tag, </t>
-  </si>
-  <si>
-    <t>inline-block elements</t>
-  </si>
-  <si>
-    <t>inline elements that responds to sizing like height and width</t>
-  </si>
-  <si>
-    <t>flexbox</t>
-  </si>
-  <si>
-    <t>way to distribute items inside a container when we don't know what size they'll need to be or how many objects will need to be there</t>
-  </si>
-  <si>
-    <t>main axis</t>
-  </si>
-  <si>
-    <t>horizontal axis that starts at the left side of the box and continues to the available space on the right (the box expands with it: the axis defines the location of the right side of the box); uses justify-content; the direction can be changed, but this is the default</t>
-  </si>
-  <si>
-    <t>cross axis</t>
-  </si>
-  <si>
-    <t>a vertical axis that starts at the top of the box and continues to the available space below (the box expands with it: the axis defines the location of the bottom of the box); uses align-items; the direction can change, but this is the default</t>
-  </si>
-  <si>
-    <t>css grid</t>
-  </si>
-  <si>
-    <t>2D grid-based layout system; assigns sections to a grid and then placing objects in that specific sections (define # of gridlines, sizing, and assign sections of boxes to different elements), etc.</t>
-  </si>
-  <si>
-    <t>fractional unit (fr)</t>
-  </si>
-  <si>
-    <t>defines things by relative size</t>
-  </si>
-  <si>
     <t>justify-content: space-around;</t>
   </si>
   <si>
@@ -446,6 +446,24 @@
   </si>
   <si>
     <t>defines the space between the columns and rows (not at edges); can use any sizing unit (including relative ones)</t>
+  </si>
+  <si>
+    <t>list-style: none;</t>
+  </si>
+  <si>
+    <t>gets rid of bullets or numbering if list formatting is used</t>
+  </si>
+  <si>
+    <t>line-height: 50px;</t>
+  </si>
+  <si>
+    <t>treats the box as a line of text and centers the actual text in it vertically</t>
+  </si>
+  <si>
+    <t>text-align: center;</t>
+  </si>
+  <si>
+    <t>centers the text horizontally</t>
   </si>
 </sst>
 </file>
@@ -513,285 +531,285 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="45.86"/>
+    <col customWidth="1" min="1" max="1" width="32.0"/>
     <col customWidth="1" min="2" max="2" width="126.29"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="B35" s="3"/>
     </row>
@@ -940,13 +958,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" s="3"/>
+      <c r="A54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="55">
-      <c r="B55" s="3"/>
+      <c r="A55" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="56">
-      <c r="B56" s="3"/>
+      <c r="A56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="57">
       <c r="B57" s="3"/>
@@ -3801,114 +3834,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
